--- a/key_value_storage/measurements/results/map.xlsx
+++ b/key_value_storage/measurements/results/map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="149">
   <si>
     <t/>
   </si>
@@ -70,9 +70,6 @@
     <t>Δ Allocated memory</t>
   </si>
   <si>
-    <t>212</t>
-  </si>
-  <si>
     <t>692</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Δ Reclaimed memory</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>368</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>Δ Heap memory</t>
   </si>
   <si>
-    <t>132</t>
-  </si>
-  <si>
     <t>324</t>
   </si>
   <si>
@@ -151,109 +142,109 @@
     <t>Δ Instructions</t>
   </si>
   <si>
-    <t>2836</t>
-  </si>
-  <si>
-    <t>16804</t>
-  </si>
-  <si>
-    <t>137259</t>
-  </si>
-  <si>
-    <t>1208296</t>
-  </si>
-  <si>
-    <t>14898084</t>
-  </si>
-  <si>
-    <t>133205744</t>
-  </si>
-  <si>
-    <t>1210504265</t>
-  </si>
-  <si>
-    <t>15081305146</t>
+    <t>387</t>
+  </si>
+  <si>
+    <t>16199</t>
+  </si>
+  <si>
+    <t>136654</t>
+  </si>
+  <si>
+    <t>1207409</t>
+  </si>
+  <si>
+    <t>14897338</t>
+  </si>
+  <si>
+    <t>133205139</t>
+  </si>
+  <si>
+    <t>1210503519</t>
+  </si>
+  <si>
+    <t>15081304400</t>
   </si>
   <si>
     <t>Δ GC instructions</t>
   </si>
   <si>
-    <t>2387</t>
-  </si>
-  <si>
-    <t>4328</t>
-  </si>
-  <si>
-    <t>22746</t>
-  </si>
-  <si>
-    <t>164798</t>
-  </si>
-  <si>
-    <t>2678102</t>
-  </si>
-  <si>
-    <t>21185062</t>
-  </si>
-  <si>
-    <t>167260742</t>
-  </si>
-  <si>
-    <t>2938411837</t>
+    <t>2062</t>
+  </si>
+  <si>
+    <t>4339</t>
+  </si>
+  <si>
+    <t>22757</t>
+  </si>
+  <si>
+    <t>164809</t>
+  </si>
+  <si>
+    <t>2678113</t>
+  </si>
+  <si>
+    <t>21185073</t>
+  </si>
+  <si>
+    <t>167260753</t>
+  </si>
+  <si>
+    <t>2938411826</t>
   </si>
   <si>
     <t>Δ Mutator instructions</t>
   </si>
   <si>
-    <t>9019</t>
-  </si>
-  <si>
-    <t>24049</t>
-  </si>
-  <si>
-    <t>155124</t>
-  </si>
-  <si>
-    <t>1332382</t>
-  </si>
-  <si>
-    <t>16084170</t>
-  </si>
-  <si>
-    <t>145011851</t>
-  </si>
-  <si>
-    <t>1328510372</t>
-  </si>
-  <si>
-    <t>16261311306</t>
+    <t>6493</t>
+  </si>
+  <si>
+    <t>23367</t>
+  </si>
+  <si>
+    <t>154442</t>
+  </si>
+  <si>
+    <t>1331418</t>
+  </si>
+  <si>
+    <t>16083347</t>
+  </si>
+  <si>
+    <t>145011169</t>
+  </si>
+  <si>
+    <t>1328509549</t>
+  </si>
+  <si>
+    <t>16261310483</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>724</t>
-  </si>
-  <si>
-    <t>4408</t>
-  </si>
-  <si>
-    <t>41532</t>
-  </si>
-  <si>
-    <t>433362</t>
-  </si>
-  <si>
-    <t>4053178</t>
-  </si>
-  <si>
-    <t>41653304</t>
-  </si>
-  <si>
-    <t>429845406</t>
-  </si>
-  <si>
-    <t>4043152268</t>
+    <t>362</t>
+  </si>
+  <si>
+    <t>4046</t>
+  </si>
+  <si>
+    <t>41170</t>
+  </si>
+  <si>
+    <t>432716</t>
+  </si>
+  <si>
+    <t>4052674</t>
+  </si>
+  <si>
+    <t>41652942</t>
+  </si>
+  <si>
+    <t>429844902</t>
+  </si>
+  <si>
+    <t>4043151764</t>
   </si>
   <si>
     <t>-368</t>
@@ -262,76 +253,76 @@
     <t>-1104</t>
   </si>
   <si>
-    <t>6907</t>
-  </si>
-  <si>
-    <t>11653</t>
-  </si>
-  <si>
-    <t>59397</t>
-  </si>
-  <si>
-    <t>557448</t>
-  </si>
-  <si>
-    <t>5239264</t>
-  </si>
-  <si>
-    <t>53459411</t>
-  </si>
-  <si>
-    <t>547851513</t>
-  </si>
-  <si>
-    <t>5223158428</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>4515</t>
-  </si>
-  <si>
-    <t>42507</t>
-  </si>
-  <si>
-    <t>442872</t>
-  </si>
-  <si>
-    <t>4150140</t>
-  </si>
-  <si>
-    <t>42614913</t>
-  </si>
-  <si>
-    <t>439367634</t>
-  </si>
-  <si>
-    <t>4140172335</t>
-  </si>
-  <si>
-    <t>6927</t>
-  </si>
-  <si>
-    <t>11760</t>
-  </si>
-  <si>
-    <t>60372</t>
-  </si>
-  <si>
-    <t>566958</t>
-  </si>
-  <si>
-    <t>5336226</t>
-  </si>
-  <si>
-    <t>54421020</t>
-  </si>
-  <si>
-    <t>557373741</t>
-  </si>
-  <si>
-    <t>5320178495</t>
+    <t>6468</t>
+  </si>
+  <si>
+    <t>11214</t>
+  </si>
+  <si>
+    <t>58958</t>
+  </si>
+  <si>
+    <t>556725</t>
+  </si>
+  <si>
+    <t>5238683</t>
+  </si>
+  <si>
+    <t>53458972</t>
+  </si>
+  <si>
+    <t>547850932</t>
+  </si>
+  <si>
+    <t>5223157847</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>4143</t>
+  </si>
+  <si>
+    <t>42135</t>
+  </si>
+  <si>
+    <t>442218</t>
+  </si>
+  <si>
+    <t>4149627</t>
+  </si>
+  <si>
+    <t>42614541</t>
+  </si>
+  <si>
+    <t>439367121</t>
+  </si>
+  <si>
+    <t>4140171822</t>
+  </si>
+  <si>
+    <t>6478</t>
+  </si>
+  <si>
+    <t>11311</t>
+  </si>
+  <si>
+    <t>59923</t>
+  </si>
+  <si>
+    <t>566227</t>
+  </si>
+  <si>
+    <t>5335636</t>
+  </si>
+  <si>
+    <t>54420571</t>
+  </si>
+  <si>
+    <t>557373151</t>
+  </si>
+  <si>
+    <t>5320177905</t>
   </si>
   <si>
     <t>288</t>
@@ -376,7 +367,7 @@
     <t>536871996</t>
   </si>
   <si>
-    <t>-132</t>
+    <t>-100</t>
   </si>
   <si>
     <t>-324</t>
@@ -400,76 +391,76 @@
     <t>-268435524</t>
   </si>
   <si>
-    <t>1557</t>
-  </si>
-  <si>
-    <t>14139</t>
-  </si>
-  <si>
-    <t>130812</t>
-  </si>
-  <si>
-    <t>1235381</t>
-  </si>
-  <si>
-    <t>14210387</t>
-  </si>
-  <si>
-    <t>131717202</t>
-  </si>
-  <si>
-    <t>1238729336</t>
-  </si>
-  <si>
-    <t>14333086911</t>
-  </si>
-  <si>
-    <t>-2387</t>
-  </si>
-  <si>
-    <t>-4328</t>
-  </si>
-  <si>
-    <t>-22378</t>
-  </si>
-  <si>
-    <t>-164798</t>
-  </si>
-  <si>
-    <t>-2676998</t>
-  </si>
-  <si>
-    <t>-21183958</t>
-  </si>
-  <si>
-    <t>-167259638</t>
-  </si>
-  <si>
-    <t>-2938410733</t>
-  </si>
-  <si>
-    <t>7740</t>
-  </si>
-  <si>
-    <t>21384</t>
-  </si>
-  <si>
-    <t>148677</t>
-  </si>
-  <si>
-    <t>1359467</t>
-  </si>
-  <si>
-    <t>15396473</t>
-  </si>
-  <si>
-    <t>143523309</t>
-  </si>
-  <si>
-    <t>1356735443</t>
-  </si>
-  <si>
-    <t>15513093071</t>
+    <t>723</t>
+  </si>
+  <si>
+    <t>13142</t>
+  </si>
+  <si>
+    <t>126463</t>
+  </si>
+  <si>
+    <t>1200581</t>
+  </si>
+  <si>
+    <t>13869140</t>
+  </si>
+  <si>
+    <t>128316694</t>
+  </si>
+  <si>
+    <t>1204727517</t>
+  </si>
+  <si>
+    <t>13993086838</t>
+  </si>
+  <si>
+    <t>-2062</t>
+  </si>
+  <si>
+    <t>-4339</t>
+  </si>
+  <si>
+    <t>-22389</t>
+  </si>
+  <si>
+    <t>-164809</t>
+  </si>
+  <si>
+    <t>-2677009</t>
+  </si>
+  <si>
+    <t>-21183969</t>
+  </si>
+  <si>
+    <t>-167259649</t>
+  </si>
+  <si>
+    <t>-2938410722</t>
+  </si>
+  <si>
+    <t>6829</t>
+  </si>
+  <si>
+    <t>20310</t>
+  </si>
+  <si>
+    <t>144251</t>
+  </si>
+  <si>
+    <t>1324590</t>
+  </si>
+  <si>
+    <t>15055149</t>
+  </si>
+  <si>
+    <t>140122724</t>
+  </si>
+  <si>
+    <t>1322733547</t>
+  </si>
+  <si>
+    <t>15173092921</t>
   </si>
 </sst>
 </file>
@@ -951,173 +942,173 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1250,12 +1241,12 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1279,12 +1270,12 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1313,36 +1304,36 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>73</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>74</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>76</v>
-      </c>
-      <c r="G7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1351,51 +1342,51 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>83</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>84</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>86</v>
-      </c>
-      <c r="G9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1528,12 +1519,12 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1557,12 +1548,12 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1591,36 +1582,36 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>92</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>93</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>94</v>
-      </c>
-      <c r="G7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1649,31 +1640,31 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>99</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>100</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>101</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>102</v>
-      </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1792,170 +1783,170 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
         <v>106</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>107</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>108</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>109</v>
-      </c>
-      <c r="G4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
         <v>113</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>114</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>115</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>116</v>
-      </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
         <v>120</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>121</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>122</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>123</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>124</v>
-      </c>
-      <c r="G6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
         <v>128</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>129</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>130</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>131</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>132</v>
-      </c>
-      <c r="G7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
         <v>136</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>137</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>138</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>139</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>140</v>
-      </c>
-      <c r="G8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
         <v>144</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>145</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>146</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>147</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>148</v>
-      </c>
-      <c r="G9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
